--- a/Relation algebra operations.xlsx
+++ b/Relation algebra operations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Relation Algebra Operation</t>
   </si>
@@ -223,20 +223,6 @@
   }).collect(Collectors.toList());</t>
   </si>
   <si>
-    <t>List&lt;Map&lt;String, Object&gt;&gt; l = new ArrayList&lt;&gt;();
-  professorsTemp.forEach(p -&gt; {
-   deptTemp.forEach(d -&gt; {
-    Map&lt;String, Object&gt; m = new HashMap&lt;&gt;();
-    m.putAll(p);
-    m.putAll(d);
-    l.add(m);
-   });
-  });
-  return l;
-  return professorsTemp.stream().collect(Collectors.toList());
- }</t>
-  </si>
-  <si>
     <t>return professorsTemp.stream().map(p -&gt; {
    Map&lt;String, Object&gt; tmp = new HashMap&lt;&gt;();
    try {
@@ -252,6 +238,27 @@
   </si>
   <si>
     <t>rename professor.name as newName</t>
+  </si>
+  <si>
+    <t>Forcing using maps for this operation?</t>
+  </si>
+  <si>
+    <t>//get the first tuple of the first relation using stream.findFirst
+  //extract the attribute names using BeanUtils.describe
+  //get the first tuple of the second relation using stream.findFirst
+  //extract the attribute names using BeanUtils.describe
+  //compare the attribute names of both relations and rename if matching exist
+  //create list&lt;Map&lt;String, Object&gt;&gt;
+  //iterate over first relation
+   //iterate over second relation
+    //create a new map
+    //extract values from first relation and put everything into the map
+    //do the same with the second relation
+    //add map to the list
+  //return list 
+  return l;
+  return professorsTemp.stream().collect(Collectors.toList());
+ }</t>
   </si>
 </sst>
 </file>
@@ -349,16 +356,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Relation Algebra Operation" dataDxfId="6"/>
-    <tableColumn id="2" name="Description" dataDxfId="5"/>
-    <tableColumn id="3" name="To implement" dataDxfId="4"/>
-    <tableColumn id="4" name="SQL example" dataDxfId="3"/>
-    <tableColumn id="5" name="Using user dto" dataDxfId="2"/>
-    <tableColumn id="7" name="Using internal dto (Map&lt;String, Object&gt;)" dataDxfId="1"/>
-    <tableColumn id="6" name="Doubts" dataDxfId="0"/>
+    <tableColumn id="1" name="Relation Algebra Operation" dataDxfId="7"/>
+    <tableColumn id="2" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" name="To implement" dataDxfId="5"/>
+    <tableColumn id="4" name="SQL example" dataDxfId="4"/>
+    <tableColumn id="5" name="Using user dto" dataDxfId="3"/>
+    <tableColumn id="7" name="Using internal dto (Map&lt;String, Object&gt;)" dataDxfId="2"/>
+    <tableColumn id="6" name="Doubts" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -369,7 +376,7 @@
   <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Relation Algebra Operation"/>
-    <tableColumn id="2" name="Description" dataDxfId="8"/>
+    <tableColumn id="2" name="Description" dataDxfId="0"/>
     <tableColumn id="3" name="To implement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -739,7 +746,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -754,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -798,7 +805,9 @@
       <c r="F6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -819,9 +828,11 @@
       <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -836,7 +847,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -859,7 +870,9 @@
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">

--- a/Relation algebra operations.xlsx
+++ b/Relation algebra operations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Relation Algebra Operation</t>
   </si>
@@ -170,28 +170,12 @@
     <t>Doubts</t>
   </si>
   <si>
-    <t>Can I really simulate renames in Stream?? Why do I need them?
-For renaming fields I can use byte buddy rebase, but is it a temporal change?</t>
-  </si>
-  <si>
     <t>Using user dto</t>
   </si>
   <si>
     <t>Using internal dto (Map&lt;String, Object&gt;)</t>
   </si>
   <si>
-    <t>professors.stream().filter(p -&gt; {
-   try {
-    return Integer.valueOf(BeanUtils.getProperty(p, "age").toString()) &gt; 30
-      &amp;&amp; BeanUtils.getProperty(p, "gender").toString().equals("M");
-   } catch (NumberFormatException | IllegalAccessException | InvocationTargetException
-     | NoSuchMethodException e) {
-    e.printStackTrace();
-    return false;
-   }
-  }).collect(Collectors.toSet());</t>
-  </si>
-  <si>
     <t>select name, lastName from professor</t>
   </si>
   <si>
@@ -202,39 +186,6 @@
   </si>
   <si>
     <t>Professor x Department</t>
-  </si>
-  <si>
-    <t>return professorsTemp.stream().map(p -&gt; {
-   String s;
-   try {
-    s = (String)BeanUtils.getProperty(p, "name");
-    BeanUtils.setProperty(p, "newName", s);
-    return p;
-   } catch (IllegalAccessException e) {
-    e.printStackTrace();
-    return p;
-   } catch (InvocationTargetException e) {
-    e.printStackTrace();
-    return p;
-   } catch (NoSuchMethodException e) {
-    e.printStackTrace();
-    return p;
-   }
-  }).collect(Collectors.toList());</t>
-  </si>
-  <si>
-    <t>return professorsTemp.stream().map(p -&gt; {
-   Map&lt;String, Object&gt; tmp = new HashMap&lt;&gt;();
-   try {
-    tmp.put("name", BeanUtils.getProperty(p, "name"));
-    tmp.put("lastName", BeanUtils.getProperty(p, "lastName"));
-   } catch (IllegalAccessException | InvocationTargetException | NoSuchMethodException e) {
-     e.printStackTrace();
-    return null;
-   }
-   return tmp;
-  }).collect(Collectors.toList());
-    .collect(Collectors.toSet());</t>
   </si>
   <si>
     <t>rename professor.name as newName</t>
@@ -260,12 +211,56 @@
   return professorsTemp.stream().collect(Collectors.toList());
  }</t>
   </si>
+  <si>
+    <t>What name do I need to use for renaming columns if the table is a map.</t>
+  </si>
+  <si>
+    <t>professors.stream().filter(p -&gt; {
+    return Integer.valueOf(BeanUtils.getProperty(p, "age").toString()) &gt; 30
+      &amp;&amp; BeanUtils.getProperty(p, "gender").toString().equals("M");
+  }).collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <t>return professorsTemp.stream().map(p -&gt; {
+   Map&lt;String, Object&gt; tmp = new HashMap&lt;&gt;();
+    tmp.put("name", BeanUtils.getProperty(p, "name"));
+    tmp.put("lastName", BeanUtils.getProperty(p, "lastName"));
+   return tmp;
+  }).collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <t>Can I really simulate renames in Stream?? Why do I need them?</t>
+  </si>
+  <si>
+    <t>return professorsTemp.stream().map(p -&gt; {
+   String s = (String)BeanUtils.getProperty(p, "name");
+    BeanUtils.setProperty(p, "newName", s);
+    return p;   
+  }).collect(Collectors.toList());</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forcing using maps for this operation?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For now, we will use map as internal temporary tables.
+Our process will work only with maps.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +272,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +675,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,16 +703,16 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,11 +729,11 @@
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,15 +744,15 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -761,14 +763,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -786,7 +788,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -803,10 +805,10 @@
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -826,52 +828,54 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
